--- a/biology/Botanique/Jardinage_en_carrés/Jardinage_en_carrés.xlsx
+++ b/biology/Botanique/Jardinage_en_carrés/Jardinage_en_carrés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardinage_en_carr%C3%A9s</t>
+          <t>Jardinage_en_carrés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardinage en carrés ou potager en carrés (Square Foot Gardening, en anglais) est une méthode contemporaine de jardinage des légumes de jardin potager, des plantes aromatiques ou des fleurs sur une subdivision optimisée de petites surfaces de formes carrées, elles-mêmes réparties sur un plus grand carré faisant office de réceptacle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardinage_en_carr%C3%A9s</t>
+          <t>Jardinage_en_carrés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Le jardinage en carrés » ou « le potager en carrés » s’orthographient avec un « s » puisqu’il s’agit bien de plusieurs carrés mis côte-à-côte[A 1],[N 1].
 On comprend ainsi que le « potager en carré » écrit sans « s » et le « potager au carré » sont des orthographes ou des expressions erronées bien qu'utilisées.
-On trouve aussi d'autres termes, tels que « carré potager »[1].
+On trouve aussi d'autres termes, tels que « carré potager ».
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardinage_en_carr%C3%A9s</t>
+          <t>Jardinage_en_carrés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette invention contemporaine rappelle et est inspirée des formes anciennes de jardinage en carré plus importantes et étendues des jardins de curé, jardins médiévaux et jardins médicinaux[M 1],[M 2] du Moyen Âge[M 3],[A 2].
 Elle est mise au point et diffusée avec succès dans les années 1980, par l’Américain Mel Bartholomew[B 1], sous le nom de Square Foot Gardening[B 2] (« jardinage sur un pied carré » traduit en français par « jardinage en carrés[M 4] »). Elle préconise, à l'origine, une subdivision 16 carrés de 30 cm par 30 cm (soit un carré total de 1,20 m de côté)[P 1]. 
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardinage_en_carr%C3%A9s</t>
+          <t>Jardinage_en_carrés</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,20 +596,95 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mise en place
-La mise en place est relativement simple. Un bac nommé « planche de cultures[A 4],[N 3] » est créé en assemblant des bordures généralement en bois[2], ou autres matériaux équivalents[A 6],[N 5]. 
-La hauteur de la planche de cultures est libre, de quelques centimètres à 30 cm[3]. Ainsi, des potagers en carrés surélevés (60 cm[3]) peuvent être créés de telle façon à en accroître l’ergonomie et en faciliter l’entretien, les rendant ainsi plus aisément accessibles aux personnes en situation de mobilité réduite ou de handicap[M 5],[A 7],[N 6].
+          <t>Mise en place</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mise en place est relativement simple. Un bac nommé « planche de cultures[A 4],[N 3] » est créé en assemblant des bordures généralement en bois, ou autres matériaux équivalents[A 6],[N 5]. 
+La hauteur de la planche de cultures est libre, de quelques centimètres à 30 cm. Ainsi, des potagers en carrés surélevés (60 cm) peuvent être créés de telle façon à en accroître l’ergonomie et en faciliter l’entretien, les rendant ainsi plus aisément accessibles aux personnes en situation de mobilité réduite ou de handicap[M 5],[A 7],[N 6].
 Cette planche de cultures est remplie de terre ou de terreau et divisée en carrés. Par exemple, pour une planche de cultures de 1,20 m par 1,20 m : on aura 16 carrés de 30 cm par [B 1],[P 1] ou 9 carrés de 40 cm par 40 cm[A 3],[N 2]. Il ne s'agit pas d'une règle fixe : le nombre de carrés et de planches de cultures est adaptable en fonction des besoins et de la surface disponible[A 8],[N 7]. Ces carrés peuvent être matérialisés par de la cordelette, des bambous, etc[M 4],[M 6],[M 7], ou dématérialisées. 
-Méthode culturale
-Un potager en carrés permet de cultiver, sur de petites surface, une très grande variété de légumes en quantités. Il ne s’agit pas d’un potager miniaturisé, mais d’une vraie méthode culturale[N 8] ; son application préconise des quantités, des schémas de semis et plantations[A 9],[N 4] qui garantissent le bon épanouissement et la santé des cultures et, par extension : leur productivité.
-La planification est une étape importante[A 10],[N 7] : elle vise à disposer correctement les cultures entre elles, pour que chacune dispose des conditions les plus propices et puisse ainsi cohabiter au mieux avec les carrés voisins (principe de culture associée). Le travail des racines des différentes plantes, associé à celui de la faune souterraine, permet de se passer de labours[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jardinage_en_carrés</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardinage_en_carr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principes de base</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Méthode culturale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un potager en carrés permet de cultiver, sur de petites surface, une très grande variété de légumes en quantités. Il ne s’agit pas d’un potager miniaturisé, mais d’une vraie méthode culturale[N 8] ; son application préconise des quantités, des schémas de semis et plantations[A 9],[N 4] qui garantissent le bon épanouissement et la santé des cultures et, par extension : leur productivité.
+La planification est une étape importante[A 10],[N 7] : elle vise à disposer correctement les cultures entre elles, pour que chacune dispose des conditions les plus propices et puisse ainsi cohabiter au mieux avec les carrés voisins (principe de culture associée). Le travail des racines des différentes plantes, associé à celui de la faune souterraine, permet de se passer de labours.
 Dès qu’un carré est libéré, une nouvelle culture est semée ou plantée, en respectant le principe des rotations et des associations[A 11],[N 7].
 Le jardinage en carrés requiert des attentions particulières quant à l’entretien des cultures et du sol[A 12],[N 9] : l’utilisation du compost est privilégiée ; s’y ajoutent des préparations naturelles telles que l’extrait fermenté d’orties) ou de fertilisants naturels, la préservation de la biodiversité du milieu naturel étant favorisée par la présence d’insectes auxiliaires[A 13],[N 10].
-Qualités et limites
-Le jardin en carrés est particulièrement bien adapté aux petites surfaces et permet une disposition esthétique des différents légumes et des fleurs. Il s’avère pratique pour cultiver plusieurs variétés de légumes en petites quantités à titre de loisir[A 7],[A 14]. Cependant, certaines plantes sont trop encombrantes (artichaut, pomme de terre...), trop envahissantes (menthe...) ou trop lente dans leur croissance (choux de Bruxelles...) pour être adaptées à la culture en carrés[4]. Une alternance des cultures sur chaque carré est à prévoir dans l'année[4]. De par sa structure, le potager en carrés n'est pas adapté à la mécanisation, ni à la production en grande quantité.
-Il ne nécessite que peu de temps d’entretien : le désherbage peux être rapide au prorata de la surface et densification des cultures[3]. Il est écologique : les besoins en fertilisants sont réduits ; la biodiversité régule le milieu pour éviter l’emploi d’insecticides ; l’apport d’eau est limité au strict nécessaire grâce à la délimitation des carrés[A 15],[N 10]. Mais il faut cependant veiller soigneusement à l'arrosage, car la terre retient moins bien l'eau[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jardinage_en_carrés</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardinage_en_carr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principes de base</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Qualités et limites</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin en carrés est particulièrement bien adapté aux petites surfaces et permet une disposition esthétique des différents légumes et des fleurs. Il s’avère pratique pour cultiver plusieurs variétés de légumes en petites quantités à titre de loisir[A 7],[A 14]. Cependant, certaines plantes sont trop encombrantes (artichaut, pomme de terre...), trop envahissantes (menthe...) ou trop lente dans leur croissance (choux de Bruxelles...) pour être adaptées à la culture en carrés. Une alternance des cultures sur chaque carré est à prévoir dans l'année. De par sa structure, le potager en carrés n'est pas adapté à la mécanisation, ni à la production en grande quantité.
+Il ne nécessite que peu de temps d’entretien : le désherbage peux être rapide au prorata de la surface et densification des cultures. Il est écologique : les besoins en fertilisants sont réduits ; la biodiversité régule le milieu pour éviter l’emploi d’insecticides ; l’apport d’eau est limité au strict nécessaire grâce à la délimitation des carrés[A 15],[N 10]. Mais il faut cependant veiller soigneusement à l'arrosage, car la terre retient moins bien l'eau.
 Le potager en carrés permet de cultiver plus de 50 légumes et herbes aromatiques[A 3],[N 2]. Bien que sa mise en pratique simplifie beaucoup les tâches d’entretien, elle implique quand même l’application de quelques notions et attentions particulières[M 7] dont certaines relèvent tantôt de gestes spécifiques à cette méthode[M 6], tantôt de techniques issues du jardinage conventionnel[N 8].
-Par sa surélévation de quelques centimètres à plusieurs dizaines de centimètres[3], il nécessite moins d’efforts physiques pour l’entretenir. Par sa taille réduite et sa variété, il est tout à fait approprié à la pratique des amateurs débutants et des loisirs[M 8]. 
+Par sa surélévation de quelques centimètres à plusieurs dizaines de centimètres, il nécessite moins d’efforts physiques pour l’entretenir. Par sa taille réduite et sa variété, il est tout à fait approprié à la pratique des amateurs débutants et des loisirs[M 8]. 
 </t>
         </is>
       </c>
